--- a/producttestdata.xlsx
+++ b/producttestdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nazrinasari/Documents/automation/playwright2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF08A35-A9A2-954D-BF6C-006C1169CC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB96905-0410-E848-BF4E-B048DC3C258A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -650,7 +650,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:H1 B3:E3 B2:E2" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:H1 B3 B2 D2:E2 D3:E3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>